--- a/formatos/segundo_semestre_baja_sin_matricula.xlsx
+++ b/formatos/segundo_semestre_baja_sin_matricula.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DOCUMENTOS CSEIIO\PARA SISE\PLANTILLA PARA SUBIR CALIFICACIONES\PARA PLANTILLA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EE27D8-624D-4620-9496-0842445D78F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D28BBF-AB49-4022-A335-F4A5A40BF9F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1619,6 +1619,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -1714,10 +1718,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2035,11 +2035,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <pane xSplit="2" ySplit="14" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2107,27 +2107,27 @@
       <c r="C7" s="46"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="48" t="s">
         <v>266</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="57" t="s">
+      <c r="B8" s="50"/>
+      <c r="C8" s="58" t="s">
         <v>274</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="60" t="s">
+      <c r="D8" s="59"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="61" t="s">
         <v>275</v>
       </c>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="63"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
-      <c r="B9" s="49"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="41" t="s">
         <v>333</v>
       </c>
@@ -2137,12 +2137,12 @@
       <c r="E9" s="44" t="s">
         <v>334</v>
       </c>
-      <c r="F9" s="63"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="65"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="66"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="43"/>
@@ -2150,12 +2150,12 @@
       <c r="C10" s="13"/>
       <c r="D10" s="12"/>
       <c r="E10" s="45"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="68"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="69"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I11" s="28"/>
@@ -2167,15 +2167,15 @@
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21"/>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="55" t="s">
         <v>267</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="57"/>
       <c r="I12" s="34"/>
       <c r="J12" s="34"/>
       <c r="K12" s="34"/>
@@ -2184,28 +2184,28 @@
       <c r="N12" s="28"/>
     </row>
     <row r="13" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="48" t="s">
         <v>317</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="53" t="s">
         <v>268</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="E13" s="52" t="s">
+      <c r="E13" s="53" t="s">
         <v>270</v>
       </c>
-      <c r="F13" s="52" t="s">
+      <c r="F13" s="53" t="s">
         <v>271</v>
       </c>
-      <c r="G13" s="52" t="s">
+      <c r="G13" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="H13" s="69" t="s">
+      <c r="H13" s="70" t="s">
         <v>273</v>
       </c>
       <c r="I13" s="36"/>
@@ -2216,14 +2216,14 @@
       <c r="N13" s="28"/>
     </row>
     <row r="14" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="70"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="71"/>
       <c r="I14" s="36"/>
       <c r="J14" s="29"/>
       <c r="K14" s="29"/>
@@ -2242,10 +2242,10 @@
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="24" t="str">
-        <f>IF($E15="","",IF($C$7="",IF(SUM($C15:$E15)/3&lt;6,5,ROUND(SUM($C15:$E15)/3,0)),"/"))</f>
+        <f>IF($E15="","",IF($C$9="",IF(SUM($C15:$E15)/3&lt;6,5,ROUND(SUM($C15:$E15)/3,0)),"/"))</f>
         <v/>
       </c>
-      <c r="G15" s="71" t="str">
+      <c r="G15" s="47" t="str">
         <f>IF($F15&lt;=5,"/","")</f>
         <v/>
       </c>
@@ -2271,15 +2271,15 @@
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="24" t="str">
-        <f t="shared" ref="F16:F28" si="0">IF($E16="","",IF($C$7="",IF(SUM($C16:$E16)/3&lt;6,5,ROUND(SUM($C16:$E16)/3,0)),"/"))</f>
+        <f>IF($E16="","",IF($C$9="",IF(SUM($C16:$E16)/3&lt;6,5,ROUND(SUM($C16:$E16)/3,0)),"/"))</f>
         <v/>
       </c>
-      <c r="G16" s="71" t="str">
-        <f t="shared" ref="G16:G28" si="1">IF($F16&lt;=5,"/","")</f>
+      <c r="G16" s="47" t="str">
+        <f t="shared" ref="G16:G28" si="0">IF($F16&lt;=5,"/","")</f>
         <v/>
       </c>
       <c r="H16" s="40" t="str">
-        <f t="shared" ref="H16:H28" si="2">IF($G16="","",IF($F16="/","/",IF($F16=5,5,IF($G16="/",5,IF(SUM($F16:$G16)/2&lt;6,5,ROUND(SUM($F16:$G16)/2,0))))))</f>
+        <f t="shared" ref="H16:H28" si="1">IF($G16="","",IF($F16="/","/",IF($F16=5,5,IF($G16="/",5,IF(SUM($F16:$G16)/2&lt;6,5,ROUND(SUM($F16:$G16)/2,0))))))</f>
         <v/>
       </c>
       <c r="I16" s="28"/>
@@ -2300,15 +2300,15 @@
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="24" t="str">
+        <f>IF($E17="","",IF($C$9="",IF(SUM($C17:$E17)/3&lt;6,5,ROUND(SUM($C17:$E17)/3,0)),"/"))</f>
+        <v/>
+      </c>
+      <c r="G17" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G17" s="71" t="str">
+      <c r="H17" s="40" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H17" s="40" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I17" s="28"/>
@@ -2329,15 +2329,15 @@
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="24" t="str">
+        <f>IF($E18="","",IF($C$9="",IF(SUM($C18:$E18)/3&lt;6,5,ROUND(SUM($C18:$E18)/3,0)),"/"))</f>
+        <v/>
+      </c>
+      <c r="G18" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G18" s="71" t="str">
+      <c r="H18" s="40" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H18" s="40" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I18" s="28"/>
@@ -2358,15 +2358,15 @@
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="24" t="str">
+        <f>IF($E19="","",IF($C$9="",IF(SUM($C19:$E19)/3&lt;6,5,ROUND(SUM($C19:$E19)/3,0)),"/"))</f>
+        <v/>
+      </c>
+      <c r="G19" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G19" s="71" t="str">
+      <c r="H19" s="40" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H19" s="40" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I19" s="28"/>
@@ -2387,15 +2387,15 @@
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="24" t="str">
+        <f>IF($E20="","",IF($C$9="",IF(SUM($C20:$E20)/3&lt;6,5,ROUND(SUM($C20:$E20)/3,0)),"/"))</f>
+        <v/>
+      </c>
+      <c r="G20" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G20" s="71" t="str">
+      <c r="H20" s="40" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H20" s="40" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I20" s="28"/>
@@ -2416,15 +2416,15 @@
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="24" t="str">
+        <f>IF($E21="","",IF($C$9="",IF(SUM($C21:$E21)/3&lt;6,5,ROUND(SUM($C21:$E21)/3,0)),"/"))</f>
+        <v/>
+      </c>
+      <c r="G21" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G21" s="71" t="str">
+      <c r="H21" s="40" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H21" s="40" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I21" s="28"/>
@@ -2445,15 +2445,15 @@
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="24" t="str">
+        <f>IF($E22="","",IF($C$9="",IF(SUM($C22:$E22)/3&lt;6,5,ROUND(SUM($C22:$E22)/3,0)),"/"))</f>
+        <v/>
+      </c>
+      <c r="G22" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G22" s="71" t="str">
+      <c r="H22" s="40" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H22" s="40" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I22" s="28"/>
@@ -2474,15 +2474,15 @@
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="24" t="str">
+        <f>IF($E23="","",IF($C$9="",IF(SUM($C23:$E23)/3&lt;6,5,ROUND(SUM($C23:$E23)/3,0)),"/"))</f>
+        <v/>
+      </c>
+      <c r="G23" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G23" s="71" t="str">
+      <c r="H23" s="40" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H23" s="40" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I23" s="28"/>
@@ -2503,15 +2503,15 @@
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="24" t="str">
+        <f>IF($E24="","",IF($C$9="",IF(SUM($C24:$E24)/3&lt;6,5,ROUND(SUM($C24:$E24)/3,0)),"/"))</f>
+        <v/>
+      </c>
+      <c r="G24" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G24" s="71" t="str">
+      <c r="H24" s="40" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H24" s="40" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I24" s="28"/>
@@ -2532,15 +2532,15 @@
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="24" t="str">
+        <f>IF($E25="","",IF($C$9="",IF(SUM($C25:$E25)/3&lt;6,5,ROUND(SUM($C25:$E25)/3,0)),"/"))</f>
+        <v/>
+      </c>
+      <c r="G25" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G25" s="71" t="str">
+      <c r="H25" s="40" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H25" s="40" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I25" s="28"/>
@@ -2561,15 +2561,15 @@
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="24" t="str">
+        <f>IF($E26="","",IF($C$9="",IF(SUM($C26:$E26)/3&lt;6,5,ROUND(SUM($C26:$E26)/3,0)),"/"))</f>
+        <v/>
+      </c>
+      <c r="G26" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G26" s="71" t="str">
+      <c r="H26" s="40" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H26" s="40" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I26" s="28"/>
@@ -2590,15 +2590,15 @@
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="24" t="str">
+        <f>IF($E27="","",IF($C$9="",IF(SUM($C27:$E27)/3&lt;6,5,ROUND(SUM($C27:$E27)/3,0)),"/"))</f>
+        <v/>
+      </c>
+      <c r="G27" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G27" s="71" t="str">
+      <c r="H27" s="40" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H27" s="40" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I27" s="28"/>
@@ -2619,15 +2619,15 @@
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
       <c r="F28" s="24" t="str">
+        <f>IF($E28="","",IF($C$9="",IF(SUM($C28:$E28)/3&lt;6,5,ROUND(SUM($C28:$E28)/3,0)),"/"))</f>
+        <v/>
+      </c>
+      <c r="G28" s="47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G28" s="71" t="str">
+      <c r="H28" s="40" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H28" s="40" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I28" s="28"/>
@@ -2670,7 +2670,7 @@
       <c r="N30" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8NdeBKwuWVCAQvfbyYD7guMMX/d3Ko9jHN/oN0LgscvRPFSq5zuIoN94BiH2XI4Q/IQxG7qGPP48tkkZCrfOeQ==" saltValue="a0zp2BgFwOL3v8++hBPGdA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EdoE/4AKx8mfLAjdC6hVSCAITK7GsQXG+ineJLkbEApMoCrSkO9lCgmxHbt68kn8KZPtNVcWp9igvEste7uejA==" saltValue="2/eD2cH9VGUDGavAYsc+ag==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="14">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
